--- a/controlSignal.xlsx
+++ b/controlSignal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yu.Y\Desktop\数逻\处理器大作业第二部分\code\single-cycle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yu.Y\Desktop\数逻实验\实验四\MIPSpipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E08B6D-E236-4AE4-8764-945B295938F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC822FA-5C09-4D55-A3F8-D081D248C22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -634,7 +634,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>40</v>
